--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
@@ -90,7 +90,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -373,7 +373,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="AutoFilter" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AutoFilter'!$A$1:$A$4</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AutoFilter!$A$1:$A$4</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContentsWithAutoFilter.xlsx
@@ -384,7 +384,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.555425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.525425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
